--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6620483-F84F-4589-A265-F10A69213530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FA1B6-C5CF-4A93-AB76-21CBA9F47529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="149">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1771,6 +1771,18 @@
   </si>
   <si>
     <t>無許可のアクティビティ</t>
+  </si>
+  <si>
+    <t>Missing project entry point workflow</t>
+  </si>
+  <si>
+    <t>Checks\Standard\MissingProjectEntryPointWorkflow.xaml</t>
+  </si>
+  <si>
+    <t>The project.json configuration file defines a workflow (usually Main.xaml) to act as the entry point for the project and this workflow should be included in the project.</t>
+  </si>
+  <si>
+    <t>Make sure the project contains the entry point workflow as defined in project.json.</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1939,6 +1951,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2224,7 +2242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2863,9 +2881,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -2942,39 +2962,60 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="203">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="203">
+      <c r="A5" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FA1B6-C5CF-4A93-AB76-21CBA9F47529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714968B9-BB27-4E37-BFF6-4BD3BE55962A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1783,6 +1783,24 @@
   </si>
   <si>
     <t>Make sure the project contains the entry point workflow as defined in project.json.</t>
+  </si>
+  <si>
+    <t>無許可のアプリケーション</t>
+  </si>
+  <si>
+    <t>Checks\Custom\UnallowedApplication.xaml</t>
+  </si>
+  <si>
+    <t>ワークフローはCoE（Centre of Excellence)によって許可されたアプリケーションのみ使用する必要があります。もし、あるアプリケーションがブラックリストにある場合、もしくはホワイトリストにない場合、そのアプリケーションを使用しないでください。こちらのチェックは、アプリケーションの実行ファイル名（例：メモ帳の実行ファイル名はnotepad.exe）を引数としてホワイトリストとブラックリストを設定することができます。</t>
+  </si>
+  <si>
+    <t>指定されたアプリケーションを使用しないでください、もしくはそのアプリケーションをホワイトリストに追加してください。（もしくは、そのアプリケーションをブラックリストから取り除いてください）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"WhiteList" : "",
+"BlackList": "application1.exe, application2.exe"
+} </t>
   </si>
 </sst>
 </file>
@@ -2240,9 +2258,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2817,47 +2835,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="72.5">
+    <row r="27" spans="1:7" ht="130.5">
       <c r="A27" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="58">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="72.5">
       <c r="A28" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>103</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D28" s="10"/>
       <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="58">
+      <c r="A29" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2867,10 +2908,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E28" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E29" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A28" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2883,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714968B9-BB27-4E37-BFF6-4BD3BE55962A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B9E0B-20A9-4C72-8C75-30C4E565576D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1666,18 +1666,6 @@
   <si>
     <t>画像ベースのアクティビティの利用が本当に必要か確認してください。必要な場合は、理由を説明する注釈を記載してください。</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ワークフローの命名規則</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ワークフローの命名はプロジェクトで定められた規則に従うべきです。このチェックでは、引数に記載する正規表現によってワークフローの命名規則を定義できます。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ワークフローファイル名を命名規則に従うように修正してください。</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロジェクトの必須ファイル</t>
@@ -1729,10 +1717,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Yes</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1801,6 +1785,32 @@
 "WhiteList" : "",
 "BlackList": "application1.exe, application2.exe"
 } </t>
+  </si>
+  <si>
+    <t>Checks\Custom\ActivityNamingConvention.xaml</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "^Private: .*$"
+}</t>
+  </si>
+  <si>
+    <t>ワークフローの命名規則</t>
+  </si>
+  <si>
+    <t>アクティビティの命名規則</t>
+  </si>
+  <si>
+    <t>ワークフローの命名はプロジェクトで定められた規則に従うべきです。このチェックでは、引数に記載する正規表現によってワークフローの命名規則を定義できます。</t>
+  </si>
+  <si>
+    <t>アクティビティの命名はプロジェクトで定められた規則に従うべきです。このチェックでは、引数に記載する正規表現によってアクティビティの命名規則を定義できます。</t>
+  </si>
+  <si>
+    <t>ワークフローファイル名を命名規則に従うように修正してください。</t>
+  </si>
+  <si>
+    <t>アクティビティ名を命名規則に従うように修正してください。</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2300,7 +2310,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A2" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -2321,7 +2331,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A3" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2342,7 +2352,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A4" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2363,7 +2373,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="116">
       <c r="A5" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2384,7 +2394,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A6" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -2407,7 +2417,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A7" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2430,7 +2440,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A8" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>28</v>
@@ -2451,7 +2461,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A9" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -2472,7 +2482,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A10" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -2487,7 +2497,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -2495,7 +2505,7 @@
     </row>
     <row r="11" spans="1:7" ht="159.5">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -2516,7 +2526,7 @@
     </row>
     <row r="12" spans="1:7" ht="101.5">
       <c r="A12" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -2537,7 +2547,7 @@
     </row>
     <row r="13" spans="1:7" ht="116">
       <c r="A13" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>55</v>
@@ -2560,7 +2570,7 @@
     </row>
     <row r="14" spans="1:7" ht="130.5">
       <c r="A14" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>61</v>
@@ -2581,7 +2591,7 @@
     </row>
     <row r="15" spans="1:7" ht="130.5">
       <c r="A15" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>64</v>
@@ -2602,7 +2612,7 @@
     </row>
     <row r="16" spans="1:7" ht="159.5">
       <c r="A16" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -2625,7 +2635,7 @@
     </row>
     <row r="17" spans="1:7" ht="130.5">
       <c r="A17" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>58</v>
@@ -2646,7 +2656,7 @@
     </row>
     <row r="18" spans="1:7" ht="87">
       <c r="A18" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>73</v>
@@ -2667,7 +2677,7 @@
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" ht="116">
       <c r="A19" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>107</v>
@@ -2688,7 +2698,7 @@
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" ht="87">
       <c r="A20" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>110</v>
@@ -2709,7 +2719,7 @@
     </row>
     <row r="21" spans="1:7" s="13" customFormat="1" ht="58">
       <c r="A21" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>113</v>
@@ -2730,13 +2740,13 @@
     </row>
     <row r="22" spans="1:7" ht="58">
       <c r="A22" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -2751,13 +2761,13 @@
     </row>
     <row r="23" spans="1:7" ht="58">
       <c r="A23" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -2772,13 +2782,13 @@
     </row>
     <row r="24" spans="1:7" ht="43.5">
       <c r="A24" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -2793,98 +2803,98 @@
     </row>
     <row r="25" spans="1:7" ht="72.5">
       <c r="A25" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="217.5">
       <c r="A26" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="130.5">
       <c r="A27" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="72.5">
       <c r="A28" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A29" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>104</v>
@@ -2896,10 +2906,33 @@
         <v>50</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>118</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="13" customFormat="1" ht="58">
+      <c r="A30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2908,10 +2941,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E29" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E30" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2963,7 +2996,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A2" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
@@ -2984,7 +3017,7 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="58">
       <c r="A3" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>70</v>
@@ -3005,31 +3038,31 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A4" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="203">
       <c r="A5" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>105</v>
@@ -3041,10 +3074,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B9E0B-20A9-4C72-8C75-30C4E565576D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDD859-8F8A-4CC9-A280-2104E0357678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="162">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1811,6 +1811,18 @@
   </si>
   <si>
     <t>アクティビティ名を命名規則に従うように修正してください。</t>
+  </si>
+  <si>
+    <t>ユーザーとの対話はしない</t>
+  </si>
+  <si>
+    <t>Unattendedロボットは、無人の端末環境で動作することが期待されるため、ユーザーのにメッセージダイアログを表示したり、入力ダイアログを表示したりすることがないようにします。これによりUnattendedロボットがユーザーとの対話を要求して停止することがなくなります。</t>
+  </si>
+  <si>
+    <t>Unattendedロボットでは、ユーザーとの対話を要求するアクティビティは使用しないいでください。</t>
+  </si>
+  <si>
+    <t>Checks\Custom\NoUserInteraction.xaml</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2935,16 +2947,37 @@
         <v>157</v>
       </c>
     </row>
+    <row r="31" spans="1:7" s="13" customFormat="1" ht="87">
+      <c r="A31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E30" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E31" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDD859-8F8A-4CC9-A280-2104E0357678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D4CC9E-E4FB-4A26-A95B-EB40B0F16F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1567,11 +1567,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>{ 
-"NamingPattern" : "(^(dt_)*([A-Z][a-z0-9]*)+$)"
-}</t>
-  </si>
-  <si>
     <t>{
 "Threshold" : "2"
 }</t>
@@ -1585,12 +1580,6 @@
   <si>
     <t>{
 "Threshold" : "1"
-}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>{ 
-"NamingPattern" : "(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)"
 }</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1823,6 +1812,16 @@
   </si>
   <si>
     <t>Checks\Custom\NoUserInteraction.xaml</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(dt_)?([A-Z][a-z0-9]*)+$)"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(in_|out_|io_)(dt_)?([A-Z][a-z0-9]*)+)"
+}</t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2321,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A2" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -2343,7 +2342,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A3" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2364,7 +2363,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A4" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2385,7 +2384,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="116">
       <c r="A5" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2406,7 +2405,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A6" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -2415,7 +2414,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>50</v>
@@ -2429,7 +2428,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A7" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2438,7 +2437,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>50</v>
@@ -2452,7 +2451,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A8" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>28</v>
@@ -2473,7 +2472,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A9" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -2494,7 +2493,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -2503,13 +2502,13 @@
         <v>84</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -2517,7 +2516,7 @@
     </row>
     <row r="11" spans="1:7" ht="159.5">
       <c r="A11" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -2538,7 +2537,7 @@
     </row>
     <row r="12" spans="1:7" ht="101.5">
       <c r="A12" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -2559,7 +2558,7 @@
     </row>
     <row r="13" spans="1:7" ht="116">
       <c r="A13" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>55</v>
@@ -2568,7 +2567,7 @@
         <v>87</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>54</v>
@@ -2582,7 +2581,7 @@
     </row>
     <row r="14" spans="1:7" ht="130.5">
       <c r="A14" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>61</v>
@@ -2603,7 +2602,7 @@
     </row>
     <row r="15" spans="1:7" ht="130.5">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>64</v>
@@ -2624,7 +2623,7 @@
     </row>
     <row r="16" spans="1:7" ht="159.5">
       <c r="A16" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -2633,7 +2632,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>54</v>
@@ -2647,13 +2646,13 @@
     </row>
     <row r="17" spans="1:7" ht="130.5">
       <c r="A17" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -2668,7 +2667,7 @@
     </row>
     <row r="18" spans="1:7" ht="87">
       <c r="A18" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>73</v>
@@ -2689,76 +2688,76 @@
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" ht="116">
       <c r="A19" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" ht="87">
       <c r="A20" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="13" customFormat="1" ht="58">
       <c r="A21" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="58">
       <c r="A22" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -2773,13 +2772,13 @@
     </row>
     <row r="23" spans="1:7" ht="58">
       <c r="A23" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -2794,13 +2793,13 @@
     </row>
     <row r="24" spans="1:7" ht="43.5">
       <c r="A24" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -2815,157 +2814,157 @@
     </row>
     <row r="25" spans="1:7" ht="72.5">
       <c r="A25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="C25" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="217.5">
       <c r="A26" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="130.5">
       <c r="A27" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="72.5">
       <c r="A28" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A29" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" ht="58">
       <c r="A30" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="13" customFormat="1" ht="87">
       <c r="A31" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +3028,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
@@ -3050,7 +3049,7 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="58">
       <c r="A3" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>70</v>
@@ -3071,46 +3070,46 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A4" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="203">
       <c r="A5" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D4CC9E-E4FB-4A26-A95B-EB40B0F16F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8DE99C-17DD-48F9-969C-749538EBDA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1822,6 +1822,18 @@
     <t>{ 
 "NamingPattern" : "(^(in_|out_|io_)(dt_)?([A-Z][a-z0-9]*)+)"
 }</t>
+  </si>
+  <si>
+    <t>不適切な例外の型</t>
+  </si>
+  <si>
+    <t>Checks\Custom\UnsuitableExceptionType.xaml</t>
+  </si>
+  <si>
+    <t>スローすべき例外の型は、アプリケーション由来のものとビ ジネス由来のものと区別し、適切なものとすることを推奨します。</t>
+  </si>
+  <si>
+    <t>スローまたはキャッチする例外の型は適切な派生型とし、ExceptionやApplicationExceptionを使用しないでください。</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2967,16 +2979,37 @@
         <v>158</v>
       </c>
     </row>
+    <row r="32" spans="1:7" s="13" customFormat="1" ht="58">
+      <c r="A32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E31" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E32" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A32" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8DE99C-17DD-48F9-969C-749538EBDA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1928969-E5F6-4B62-AAFE-3C64189D35D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1834,6 +1834,23 @@
   </si>
   <si>
     <t>スローまたはキャッチする例外の型は適切な派生型とし、ExceptionやApplicationExceptionを使用しないでください。</t>
+  </si>
+  <si>
+    <t>定数のReadOnlyプロパティ</t>
+  </si>
+  <si>
+    <t>Checks\Custom\ReadOnlyPropertyOfConstant.xaml</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^([A-Z][A-Z0-9]*)$)"
+}</t>
+  </si>
+  <si>
+    <t>定数は規定値で設定した値が変更されることがない変数です。定数に、変数と区別がつく命名規則を導入するとともにModifiersプロパティでReadOnlyを指定することを推奨します。これにより、ワークフローの可読性を高めるとともに、定数の値が変更されないことを保証できます。</t>
+  </si>
+  <si>
+    <t>デフォルト値を設定して値を変更しない変数は定数とし定数の命名規則に沿った変数名にしてください。また、定数のModifiersプロパティにはReadOnlyを指定してください。</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3000,16 +3017,39 @@
         <v>165</v>
       </c>
     </row>
+    <row r="33" spans="1:7" s="13" customFormat="1" ht="87">
+      <c r="A33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E32" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E33" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A32" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A33" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1928969-E5F6-4B62-AAFE-3C64189D35D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD9B5F-02CA-4C21-A008-39E7CCD679DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1851,6 +1851,18 @@
   </si>
   <si>
     <t>デフォルト値を設定して値を変更しない変数は定数とし定数の命名規則に沿った変数名にしてください。また、定数のModifiersプロパティにはReadOnlyを指定してください。</t>
+  </si>
+  <si>
+    <t>Outlookメールの自動送信</t>
+  </si>
+  <si>
+    <t>Checks\Custom\DirectlySendOutlookMail.xaml</t>
+  </si>
+  <si>
+    <t>Outlook メールメッセージを送信のIsDraftプロパティをチェックしてください。</t>
+  </si>
+  <si>
+    <t>CoE（Centre of Excellence)のセキュリティ対策によって、ロボットはメールを送信することが禁止されています。人が確認できるようにメッセージを下書きとして保存してください。</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3040,16 +3052,37 @@
         <v>170</v>
       </c>
     </row>
+    <row r="34" spans="1:7" s="13" customFormat="1" ht="72.5">
+      <c r="A34" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E33" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E34" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A33" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A34" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD9B5F-02CA-4C21-A008-39E7CCD679DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C614EE6-F852-4E02-B11B-099157AAA95F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1662,10 +1662,6 @@
   </si>
   <si>
     <t>必ず含まれてなければならない必須ファイルがCoEにより定義されていることがあります。このチェックは、引数で定義された必須ファイルが含まれているかどうか確認します。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プロジェクトフォルダに必須ファイルを追加してください。</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1746,16 +1742,7 @@
     <t>無許可のアクティビティ</t>
   </si>
   <si>
-    <t>Missing project entry point workflow</t>
-  </si>
-  <si>
     <t>Checks\Standard\MissingProjectEntryPointWorkflow.xaml</t>
-  </si>
-  <si>
-    <t>The project.json configuration file defines a workflow (usually Main.xaml) to act as the entry point for the project and this workflow should be included in the project.</t>
-  </si>
-  <si>
-    <t>Make sure the project contains the entry point workflow as defined in project.json.</t>
   </si>
   <si>
     <t>無許可のアプリケーション</t>
@@ -1863,6 +1850,19 @@
   </si>
   <si>
     <t>CoE（Centre of Excellence)のセキュリティ対策によって、ロボットはメールを送信することが禁止されています。人が確認できるようにメッセージを下書きとして保存してください。</t>
+  </si>
+  <si>
+    <t>プロジェクトエントリポイントワークフローの欠損</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ケッソン </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>project.json設定ファイルには、プロジェクトのエントリーポイントとして動作するワークフロー（通常はMain.xaml）を定義します。このワークフローをプロジェクトに含める必要があります。</t>
+  </si>
+  <si>
+    <t>プロジェクトに、project.jsonで定義されているエントリポイントワークフローが含まれていることを確認します。</t>
   </si>
 </sst>
 </file>
@@ -2332,7 +2332,7 @@
     <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" style="1" customWidth="1"/>
     <col min="4" max="5" width="28.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="39.6328125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6328125" style="1"/>
   </cols>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A2" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A3" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A4" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="116">
       <c r="A5" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A6" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -2455,7 +2455,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>50</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A7" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2478,7 +2478,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>50</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A8" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>28</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A9" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A10" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -2549,7 +2549,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="11" spans="1:7" ht="159.5">
       <c r="A11" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="12" spans="1:7" ht="101.5">
       <c r="A12" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="13" spans="1:7" ht="116">
       <c r="A13" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>55</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="14" spans="1:7" ht="130.5">
       <c r="A14" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>61</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="15" spans="1:7" ht="130.5">
       <c r="A15" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>64</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="16" spans="1:7" ht="159.5">
       <c r="A16" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="17" spans="1:7" ht="130.5">
       <c r="A17" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>58</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="18" spans="1:7" ht="87">
       <c r="A18" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>73</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" ht="116">
       <c r="A19" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>105</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" ht="87">
       <c r="A20" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>108</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="21" spans="1:7" s="13" customFormat="1" ht="58">
       <c r="A21" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>111</v>
@@ -2792,13 +2792,13 @@
     </row>
     <row r="22" spans="1:7" ht="58">
       <c r="A22" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -2813,13 +2813,13 @@
     </row>
     <row r="23" spans="1:7" ht="58">
       <c r="A23" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -2834,13 +2834,13 @@
     </row>
     <row r="24" spans="1:7" ht="43.5">
       <c r="A24" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -2855,98 +2855,98 @@
     </row>
     <row r="25" spans="1:7" ht="72.5">
       <c r="A25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="217.5">
       <c r="A26" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="130.5">
       <c r="A27" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="72.5">
       <c r="A28" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A29" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>102</v>
@@ -2958,119 +2958,119 @@
         <v>50</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" ht="58">
       <c r="A30" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="13" customFormat="1" ht="87">
       <c r="A31" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" ht="58">
       <c r="A32" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="13" customFormat="1" ht="87">
       <c r="A33" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="13" customFormat="1" ht="72.5">
       <c r="A34" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3099,14 +3099,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
     <col min="4" max="5" width="28.36328125" customWidth="1"/>
-    <col min="6" max="6" width="49.90625" customWidth="1"/>
-    <col min="7" max="7" width="40.08984375" customWidth="1"/>
+    <col min="6" max="6" width="49.81640625" customWidth="1"/>
+    <col min="7" max="7" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -3134,7 +3134,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="58">
       <c r="A3" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>70</v>
@@ -3176,28 +3176,28 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A4" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="203">
       <c r="A5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>114</v>
@@ -3214,9 +3214,7 @@
       <c r="F5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="G5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C614EE6-F852-4E02-B11B-099157AAA95F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9749AB4-9C97-4BD6-9BFB-BD86B69F000F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1694,16 +1694,8 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Checks\Custom\LogBrowserURL.xaml</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Yes</t>
@@ -2331,7 +2323,8 @@
     <col min="1" max="1" width="8.6328125" style="1"/>
     <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="39.6328125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6328125" style="1"/>
@@ -2362,7 +2355,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A2" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -2383,7 +2376,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A3" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2404,7 +2397,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A4" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2425,7 +2418,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="116">
       <c r="A5" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2446,7 +2439,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A6" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -2455,7 +2448,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>50</v>
@@ -2469,7 +2462,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A7" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2478,7 +2471,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>50</v>
@@ -2492,7 +2485,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A8" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>28</v>
@@ -2513,7 +2506,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A9" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -2534,7 +2527,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A10" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -2549,7 +2542,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -2557,7 +2550,7 @@
     </row>
     <row r="11" spans="1:7" ht="159.5">
       <c r="A11" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -2578,7 +2571,7 @@
     </row>
     <row r="12" spans="1:7" ht="101.5">
       <c r="A12" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -2599,7 +2592,7 @@
     </row>
     <row r="13" spans="1:7" ht="116">
       <c r="A13" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>55</v>
@@ -2622,7 +2615,7 @@
     </row>
     <row r="14" spans="1:7" ht="130.5">
       <c r="A14" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>61</v>
@@ -2643,7 +2636,7 @@
     </row>
     <row r="15" spans="1:7" ht="130.5">
       <c r="A15" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>64</v>
@@ -2664,7 +2657,7 @@
     </row>
     <row r="16" spans="1:7" ht="159.5">
       <c r="A16" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -2687,7 +2680,7 @@
     </row>
     <row r="17" spans="1:7" ht="130.5">
       <c r="A17" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>58</v>
@@ -2708,7 +2701,7 @@
     </row>
     <row r="18" spans="1:7" ht="87">
       <c r="A18" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>73</v>
@@ -2729,7 +2722,7 @@
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" ht="116">
       <c r="A19" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>105</v>
@@ -2750,7 +2743,7 @@
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" ht="87">
       <c r="A20" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>108</v>
@@ -2771,7 +2764,7 @@
     </row>
     <row r="21" spans="1:7" s="13" customFormat="1" ht="58">
       <c r="A21" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>111</v>
@@ -2792,7 +2785,7 @@
     </row>
     <row r="22" spans="1:7" ht="58">
       <c r="A22" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
@@ -2813,7 +2806,7 @@
     </row>
     <row r="23" spans="1:7" ht="58">
       <c r="A23" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
@@ -2834,7 +2827,7 @@
     </row>
     <row r="24" spans="1:7" ht="43.5">
       <c r="A24" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -2855,31 +2848,31 @@
     </row>
     <row r="25" spans="1:7" ht="72.5">
       <c r="A25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="C25" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="217.5">
       <c r="A26" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>120</v>
@@ -2891,10 +2884,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="130.5">
@@ -2902,22 +2895,22 @@
         <v>119</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="72.5">
@@ -2925,20 +2918,20 @@
         <v>122</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="58">
@@ -2946,7 +2939,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>102</v>
@@ -2958,10 +2951,10 @@
         <v>50</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" ht="58">
@@ -2969,22 +2962,22 @@
         <v>119</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="13" customFormat="1" ht="87">
@@ -2992,20 +2985,20 @@
         <v>119</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" ht="58">
@@ -3013,20 +3006,20 @@
         <v>119</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="13" customFormat="1" ht="87">
@@ -3034,22 +3027,22 @@
         <v>119</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="13" customFormat="1" ht="72.5">
@@ -3057,20 +3050,20 @@
         <v>119</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3097,8 @@
     <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="5" width="28.36328125" customWidth="1"/>
+    <col min="4" max="4" width="28.36328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="6" width="49.81640625" customWidth="1"/>
     <col min="7" max="7" width="40.1796875" customWidth="1"/>
   </cols>
@@ -3134,7 +3128,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
@@ -3155,7 +3149,7 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="58">
       <c r="A3" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>70</v>
@@ -3176,23 +3170,23 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A4" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="203">

--- a/Config/JA/Checklist.xlsx
+++ b/Config/JA/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9749AB4-9C97-4BD6-9BFB-BD86B69F000F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A172B8A-9306-4A7B-BA5D-EDCE3C5CD551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,9 +1704,6 @@
     <t>Checks\Standard\UnadjustedForEach.xaml</t>
   </si>
   <si>
-    <t>繰り返し (コレクションの各要素)】アクティビティの item 変数</t>
-  </si>
-  <si>
     <t>【繰り返し (コレクションの各要素)】アクティビティのitem変数の名前と型を処理内容にあわせて変更することを推奨します。これにより、ワークフローの可読性を高めることができます。</t>
   </si>
   <si>
@@ -1855,6 +1852,9 @@
   </si>
   <si>
     <t>プロジェクトに、project.jsonで定義されているエントリポイントワークフローが含まれていることを確認します。</t>
+  </si>
+  <si>
+    <t>【繰り返し (コレクションの各要素)】アクティビティの item 変数</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2448,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>50</v>
@@ -2471,7 +2471,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>50</v>
@@ -2542,7 +2542,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -2851,7 +2851,7 @@
         <v>124</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>125</v>
@@ -2861,10 +2861,10 @@
         <v>50</v>
       </c>
       <c r="F25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="217.5">
@@ -2872,7 +2872,7 @@
         <v>119</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>120</v>
@@ -2884,10 +2884,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="130.5">
@@ -2895,22 +2895,22 @@
         <v>119</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="72.5">
@@ -2918,7 +2918,7 @@
         <v>122</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>123</v>
@@ -2928,10 +2928,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="58">
@@ -2939,7 +2939,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>102</v>
@@ -2951,10 +2951,10 @@
         <v>50</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" ht="58">
@@ -2962,22 +2962,22 @@
         <v>119</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="13" customFormat="1" ht="87">
@@ -2985,20 +2985,20 @@
         <v>119</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" ht="58">
@@ -3006,20 +3006,20 @@
         <v>119</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="13" customFormat="1" ht="87">
@@ -3027,22 +3027,22 @@
         <v>119</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="13" customFormat="1" ht="72.5">
@@ -3050,20 +3050,20 @@
         <v>119</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3173,20 +3173,20 @@
         <v>124</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="203">
